--- a/Cartel1.xlsx
+++ b/Cartel1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -126,9 +126,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
     <t xml:space="preserve">AUTO_INCREMENT, UNIQUE, NOT NULL </t>
   </si>
   <si>
@@ -141,7 +138,7 @@
     <t>UNSIGNED, NULL</t>
   </si>
   <si>
-    <t>UNSIGNED, NULL, FLOAT(6,3)</t>
+    <t>INT</t>
   </si>
 </sst>
 </file>
@@ -481,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -935,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1005,7 +1002,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1029,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1053,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1101,7 +1098,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -1127,7 +1124,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -1153,7 +1150,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
